--- a/slr/clustering.xlsx
+++ b/slr/clustering.xlsx
@@ -1094,7 +1094,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="3" max="3" width="50.8515625"/>
     <col customWidth="1" min="5" max="5" width="17.00390625"/>
@@ -1556,194 +1556,194 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
+    <row r="10" s="1" customFormat="1">
+      <c r="A10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>2018</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>72</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>83</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>90</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>476</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
+    <row r="11" s="1" customFormat="1">
+      <c r="A11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>2017</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>17</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>26</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>426</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
+    <row r="12" s="1" customFormat="1">
+      <c r="A12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>2018</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>465</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>1</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>20</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>417</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
+    <row r="13" s="2" customFormat="1">
+      <c r="A13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>2014</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>46</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>198</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <v>226</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>411</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1894,50 +1894,50 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s">
+    <row r="17" s="1" customFormat="1">
+      <c r="A17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>2015</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>1855</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>1870</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="1">
         <v>363</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2132,50 +2132,50 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
+    <row r="22" s="1" customFormat="1">
+      <c r="A22" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>2016</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>99</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>135</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>145</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="1">
         <v>306</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S22" s="1" t="s">
         <v>172</v>
       </c>
     </row>

--- a/slr/clustering.xlsx
+++ b/slr/clustering.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>Authors</t>
   </si>
@@ -553,13 +553,31 @@
   </si>
   <si>
     <t>2-s2.0-85047255672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maritime Anomaly Detection using Density-based Clustering and Recurrent Neural Network</t>
+  </si>
+  <si>
+    <t>https://sci-hub.st/10.1017/s0373463319000031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATI ENT-SP ECIFIC ECG CLASSIFICATION BASE D ON RECURRENT
+NE URA L NE TWORKS AND CLUSTERING TECHNIQU E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Data Mining Approach Combining K-Means
+Clustering With Bagging Neural Network for
+Short-Term Wind Power Forecasting</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/7870674</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -577,6 +595,12 @@
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -613,10 +637,14 @@
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1096,7 +1124,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="50.8515625"/>
+    <col customWidth="1" min="3" max="3" width="71.00390625"/>
     <col customWidth="1" min="5" max="5" width="17.00390625"/>
   </cols>
   <sheetData>
@@ -2229,9 +2257,50 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24"/>
-    <row r="25"/>
+    <row r="24">
+      <c r="C24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24">
+        <v>2019</v>
+      </c>
+      <c r="L24">
+        <v>46</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" ht="28.5">
+      <c r="C25" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25">
+        <v>2017</v>
+      </c>
+      <c r="L25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" ht="42.75">
+      <c r="C26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26">
+        <v>2017</v>
+      </c>
+      <c r="L26">
+        <v>139</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="N24"/>
+    <hyperlink r:id="rId2" ref="N26"/>
+  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
